--- a/exec/AIN_테스트케이스(최종).xlsx
+++ b/exec/AIN_테스트케이스(최종).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="172">
   <si>
     <t>No</t>
   </si>
@@ -20946,6 +20946,208 @@
         <family val="2"/>
       </rPr>
       <t>P</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카메라</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">화면
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(/photo)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>촬영</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상형</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리스트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(/chat)</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -21747,158 +21949,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -21921,6 +21975,154 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -22148,8 +22350,8 @@
   </sheetPr>
   <dimension ref="B1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -22206,13 +22408,13 @@
       <c r="B3" s="35">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="73" t="s">
         <v>110</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -22231,9 +22433,9 @@
       <c r="B4" s="35">
         <v>2</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
@@ -22250,8 +22452,8 @@
       <c r="B5" s="35">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="98" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="45" t="s">
@@ -22273,9 +22475,9 @@
       <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="79" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="73" t="s">
         <v>112</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -22294,9 +22496,9 @@
       <c r="B7" s="35">
         <v>5</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="68"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="90"/>
       <c r="F7" s="10" t="s">
         <v>9</v>
       </c>
@@ -22313,9 +22515,9 @@
       <c r="B8" s="35">
         <v>6</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="68"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
@@ -22332,9 +22534,9 @@
       <c r="B9" s="35">
         <v>7</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="107" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="91" t="s">
         <v>113</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -22353,9 +22555,9 @@
       <c r="B10" s="35">
         <v>8</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="68"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
@@ -22372,9 +22574,9 @@
       <c r="B11" s="35">
         <v>9</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="68"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="10" t="s">
         <v>12</v>
       </c>
@@ -22391,9 +22593,9 @@
       <c r="B12" s="35">
         <v>10</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="69"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="13" t="s">
         <v>14</v>
       </c>
@@ -22410,9 +22612,9 @@
       <c r="B13" s="35">
         <v>11</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="102" t="s">
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="93" t="s">
         <v>114</v>
       </c>
       <c r="F13" s="14" t="s">
@@ -22431,9 +22633,9 @@
       <c r="B14" s="35">
         <v>12</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="108"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="28" t="s">
         <v>17</v>
       </c>
@@ -22450,9 +22652,9 @@
       <c r="B15" s="35">
         <v>13</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="108"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="28" t="s">
         <v>18</v>
       </c>
@@ -22469,9 +22671,9 @@
       <c r="B16" s="35">
         <v>14</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="108"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="63" t="s">
         <v>162</v>
       </c>
@@ -22488,9 +22690,9 @@
       <c r="B17" s="35">
         <v>15</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="109"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="28" t="s">
         <v>108</v>
       </c>
@@ -22507,9 +22709,9 @@
       <c r="B18" s="35">
         <v>16</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="87" t="s">
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="96" t="s">
         <v>115</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -22528,9 +22730,9 @@
       <c r="B19" s="35">
         <v>17</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="88"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="17" t="s">
         <v>20</v>
       </c>
@@ -22547,11 +22749,11 @@
       <c r="B20" s="35">
         <v>18</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="92" t="s">
+      <c r="C20" s="99"/>
+      <c r="D20" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="79" t="s">
+      <c r="E20" s="73" t="s">
         <v>116</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -22570,9 +22772,9 @@
       <c r="B21" s="35">
         <v>19</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="68"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="10" t="s">
         <v>21</v>
       </c>
@@ -22589,9 +22791,9 @@
       <c r="B22" s="35">
         <v>20</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="68"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="61" t="s">
         <v>24</v>
       </c>
@@ -22608,9 +22810,9 @@
       <c r="B23" s="35">
         <v>21</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="68"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="10" t="s">
         <v>25</v>
       </c>
@@ -22627,9 +22829,9 @@
       <c r="B24" s="35">
         <v>22</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="102" t="s">
+      <c r="C24" s="99"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="93" t="s">
         <v>117</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -22648,9 +22850,9 @@
       <c r="B25" s="35">
         <v>23</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="103"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="109"/>
       <c r="F25" s="10" t="s">
         <v>26</v>
       </c>
@@ -22667,9 +22869,9 @@
       <c r="B26" s="35">
         <v>24</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="68" t="s">
+      <c r="C26" s="99"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="90" t="s">
         <v>118</v>
       </c>
       <c r="F26" s="10" t="s">
@@ -22688,9 +22890,9 @@
       <c r="B27" s="35">
         <v>25</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="68"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="90"/>
       <c r="F27" s="10" t="s">
         <v>28</v>
       </c>
@@ -22707,9 +22909,9 @@
       <c r="B28" s="35">
         <v>26</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="68"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="90"/>
       <c r="F28" s="12" t="s">
         <v>23</v>
       </c>
@@ -22726,9 +22928,9 @@
       <c r="B29" s="35">
         <v>27</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="80"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="10" t="s">
         <v>27</v>
       </c>
@@ -22745,13 +22947,13 @@
       <c r="B30" s="35">
         <v>28</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="98" t="s">
+      <c r="D30" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="79" t="s">
+      <c r="E30" s="73" t="s">
         <v>119</v>
       </c>
       <c r="F30" s="10" t="s">
@@ -22770,9 +22972,9 @@
       <c r="B31" s="35">
         <v>29</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="69"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="10" t="s">
         <v>30</v>
       </c>
@@ -22789,9 +22991,9 @@
       <c r="B32" s="35">
         <v>30</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="77" t="s">
+      <c r="C32" s="76"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="81" t="s">
         <v>120</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -22810,9 +23012,9 @@
       <c r="B33" s="35">
         <v>31</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="96"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="82"/>
       <c r="F33" s="10" t="s">
         <v>32</v>
       </c>
@@ -22829,9 +23031,9 @@
       <c r="B34" s="35">
         <v>32</v>
       </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="96"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="10" t="s">
         <v>29</v>
       </c>
@@ -22848,9 +23050,9 @@
       <c r="B35" s="35">
         <v>33</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="95"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="83"/>
       <c r="F35" s="10" t="s">
         <v>33</v>
       </c>
@@ -22867,9 +23069,9 @@
       <c r="B36" s="35">
         <v>34</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="77" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="81" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -22888,9 +23090,9 @@
       <c r="B37" s="35">
         <v>35</v>
       </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="96"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="10" t="s">
         <v>32</v>
       </c>
@@ -22907,9 +23109,9 @@
       <c r="B38" s="35">
         <v>36</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="96"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="10" t="s">
         <v>39</v>
       </c>
@@ -22926,9 +23128,9 @@
       <c r="B39" s="35">
         <v>37</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="95"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="83"/>
       <c r="F39" s="10" t="s">
         <v>33</v>
       </c>
@@ -22945,9 +23147,9 @@
       <c r="B40" s="35">
         <v>38</v>
       </c>
-      <c r="C40" s="93"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="77" t="s">
+      <c r="C40" s="76"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="81" t="s">
         <v>122</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -22966,9 +23168,9 @@
       <c r="B41" s="35">
         <v>39</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="96"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="10" t="s">
         <v>36</v>
       </c>
@@ -22985,9 +23187,9 @@
       <c r="B42" s="35">
         <v>40</v>
       </c>
-      <c r="C42" s="93"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="96"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="82"/>
       <c r="F42" s="10" t="s">
         <v>34</v>
       </c>
@@ -23004,9 +23206,9 @@
       <c r="B43" s="35">
         <v>41</v>
       </c>
-      <c r="C43" s="93"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="95"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="83"/>
       <c r="F43" s="10" t="s">
         <v>33</v>
       </c>
@@ -23023,9 +23225,9 @@
       <c r="B44" s="35">
         <v>42</v>
       </c>
-      <c r="C44" s="93"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="77" t="s">
+      <c r="C44" s="76"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="81" t="s">
         <v>123</v>
       </c>
       <c r="F44" s="10" t="s">
@@ -23044,9 +23246,9 @@
       <c r="B45" s="35">
         <v>43</v>
       </c>
-      <c r="C45" s="93"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="78"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="84"/>
       <c r="F45" s="10" t="s">
         <v>35</v>
       </c>
@@ -23063,7 +23265,7 @@
       <c r="B46" s="35">
         <v>44</v>
       </c>
-      <c r="C46" s="93"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="55" t="s">
         <v>148</v>
       </c>
@@ -23086,11 +23288,11 @@
       <c r="B47" s="35">
         <v>45</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="101" t="s">
+      <c r="C47" s="76"/>
+      <c r="D47" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="77" t="s">
+      <c r="E47" s="81" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="10" t="s">
@@ -23109,9 +23311,9 @@
       <c r="B48" s="35">
         <v>46</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="95"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="83"/>
       <c r="F48" s="10" t="s">
         <v>42</v>
       </c>
@@ -23128,8 +23330,8 @@
       <c r="B49" s="35">
         <v>47</v>
       </c>
-      <c r="C49" s="93"/>
-      <c r="D49" s="99"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="106"/>
       <c r="E49" s="47" t="s">
         <v>126</v>
       </c>
@@ -23149,9 +23351,9 @@
       <c r="B50" s="35">
         <v>48</v>
       </c>
-      <c r="C50" s="93"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="96" t="s">
+      <c r="C50" s="76"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="82" t="s">
         <v>127</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -23170,9 +23372,9 @@
       <c r="B51" s="35">
         <v>49</v>
       </c>
-      <c r="C51" s="93"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="96"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="10" t="s">
         <v>45</v>
       </c>
@@ -23189,9 +23391,9 @@
       <c r="B52" s="35">
         <v>51</v>
       </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="78"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="84"/>
       <c r="F52" s="10" t="s">
         <v>82</v>
       </c>
@@ -23208,9 +23410,13 @@
       <c r="B53" s="35">
         <v>53</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="77" t="s">
+      <c r="C53" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="81" t="s">
         <v>128</v>
       </c>
       <c r="F53" s="10" t="s">
@@ -23229,9 +23435,9 @@
       <c r="B54" s="35">
         <v>54</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="95"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="83"/>
       <c r="F54" s="10" t="s">
         <v>46</v>
       </c>
@@ -23248,9 +23454,9 @@
       <c r="B55" s="35">
         <v>55</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="77" t="s">
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="81" t="s">
         <v>129</v>
       </c>
       <c r="F55" s="10" t="s">
@@ -23269,9 +23475,9 @@
       <c r="B56" s="35">
         <v>56</v>
       </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="95"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="83"/>
       <c r="F56" s="10" t="s">
         <v>48</v>
       </c>
@@ -23288,9 +23494,9 @@
       <c r="B57" s="35">
         <v>57</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="77" t="s">
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="81" t="s">
         <v>130</v>
       </c>
       <c r="F57" s="18" t="s">
@@ -23309,9 +23515,9 @@
       <c r="B58" s="35">
         <v>58</v>
       </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="78"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="84"/>
       <c r="F58" s="10" t="s">
         <v>53</v>
       </c>
@@ -23328,11 +23534,11 @@
       <c r="B59" s="35">
         <v>59</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="98" t="s">
+      <c r="C59" s="99"/>
+      <c r="D59" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="E59" s="79" t="s">
+      <c r="E59" s="73" t="s">
         <v>131</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -23351,9 +23557,9 @@
       <c r="B60" s="35">
         <v>60</v>
       </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="68"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="90"/>
       <c r="F60" s="10" t="s">
         <v>51</v>
       </c>
@@ -23370,9 +23576,9 @@
       <c r="B61" s="35">
         <v>61</v>
       </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="68"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="90"/>
       <c r="F61" s="10" t="s">
         <v>59</v>
       </c>
@@ -23389,9 +23595,9 @@
       <c r="B62" s="35">
         <v>62</v>
       </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="68"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="90"/>
       <c r="F62" s="10" t="s">
         <v>63</v>
       </c>
@@ -23408,9 +23614,9 @@
       <c r="B63" s="35">
         <v>63</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="79" t="s">
+      <c r="C63" s="99"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="73" t="s">
         <v>132</v>
       </c>
       <c r="F63" s="10" t="s">
@@ -23429,9 +23635,9 @@
       <c r="B64" s="35">
         <v>64</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="104"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
       <c r="F64" s="10" t="s">
         <v>54</v>
       </c>
@@ -23448,9 +23654,9 @@
       <c r="B65" s="35">
         <v>65</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="104"/>
-      <c r="E65" s="79" t="s">
+      <c r="C65" s="99"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="73" t="s">
         <v>113</v>
       </c>
       <c r="F65" s="10" t="s">
@@ -23469,9 +23675,9 @@
       <c r="B66" s="35">
         <v>66</v>
       </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="68"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="90"/>
       <c r="F66" s="10" t="s">
         <v>84</v>
       </c>
@@ -23488,9 +23694,9 @@
       <c r="B67" s="35">
         <v>67</v>
       </c>
-      <c r="C67" s="65"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="68"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="90"/>
       <c r="F67" s="10" t="s">
         <v>62</v>
       </c>
@@ -23507,9 +23713,9 @@
       <c r="B68" s="35">
         <v>68</v>
       </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="80"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="110"/>
       <c r="F68" s="10" t="s">
         <v>14</v>
       </c>
@@ -23526,9 +23732,9 @@
       <c r="B69" s="35">
         <v>69</v>
       </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="79" t="s">
+      <c r="C69" s="99"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="73" t="s">
         <v>133</v>
       </c>
       <c r="F69" s="10" t="s">
@@ -23547,9 +23753,9 @@
       <c r="B70" s="35">
         <v>70</v>
       </c>
-      <c r="C70" s="65"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="104"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
       <c r="F70" s="10" t="s">
         <v>57</v>
       </c>
@@ -23566,9 +23772,9 @@
       <c r="B71" s="35">
         <v>71</v>
       </c>
-      <c r="C71" s="65"/>
-      <c r="D71" s="104"/>
-      <c r="E71" s="104"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="15" t="s">
         <v>61</v>
       </c>
@@ -23585,9 +23791,9 @@
       <c r="B72" s="35">
         <v>72</v>
       </c>
-      <c r="C72" s="65"/>
-      <c r="D72" s="104"/>
-      <c r="E72" s="104"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
       <c r="F72" s="28" t="s">
         <v>155</v>
       </c>
@@ -23604,9 +23810,9 @@
       <c r="B73" s="35">
         <v>73</v>
       </c>
-      <c r="C73" s="65"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="104"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
       <c r="F73" s="63" t="s">
         <v>161</v>
       </c>
@@ -23623,9 +23829,9 @@
       <c r="B74" s="35">
         <v>74</v>
       </c>
-      <c r="C74" s="65"/>
-      <c r="D74" s="104"/>
-      <c r="E74" s="104"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
       <c r="F74" s="15" t="s">
         <v>58</v>
       </c>
@@ -23642,9 +23848,9 @@
       <c r="B75" s="35">
         <v>75</v>
       </c>
-      <c r="C75" s="65"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="104"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
       <c r="F75" s="15" t="s">
         <v>60</v>
       </c>
@@ -23661,9 +23867,9 @@
       <c r="B76" s="35">
         <v>76</v>
       </c>
-      <c r="C76" s="65"/>
-      <c r="D76" s="104"/>
-      <c r="E76" s="104"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
       <c r="F76" s="15" t="s">
         <v>85</v>
       </c>
@@ -23680,8 +23886,8 @@
       <c r="B77" s="35">
         <v>77</v>
       </c>
-      <c r="C77" s="65"/>
-      <c r="D77" s="89" t="s">
+      <c r="C77" s="99"/>
+      <c r="D77" s="100" t="s">
         <v>146</v>
       </c>
       <c r="E77" s="48" t="s">
@@ -23703,9 +23909,9 @@
       <c r="B78" s="35">
         <v>78</v>
       </c>
-      <c r="C78" s="65"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="72" t="s">
+      <c r="C78" s="99"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="114" t="s">
         <v>131</v>
       </c>
       <c r="F78" s="19" t="s">
@@ -23724,9 +23930,9 @@
       <c r="B79" s="35">
         <v>79</v>
       </c>
-      <c r="C79" s="65"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="73"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="115"/>
       <c r="F79" s="19" t="s">
         <v>65</v>
       </c>
@@ -23743,9 +23949,9 @@
       <c r="B80" s="35">
         <v>80</v>
       </c>
-      <c r="C80" s="65"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="72" t="s">
+      <c r="C80" s="99"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="114" t="s">
         <v>135</v>
       </c>
       <c r="F80" s="19" t="s">
@@ -23764,9 +23970,9 @@
       <c r="B81" s="35">
         <v>81</v>
       </c>
-      <c r="C81" s="65"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="76"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="118"/>
       <c r="F81" s="19" t="s">
         <v>88</v>
       </c>
@@ -23783,9 +23989,9 @@
       <c r="B82" s="35">
         <v>82</v>
       </c>
-      <c r="C82" s="65"/>
-      <c r="D82" s="90"/>
-      <c r="E82" s="76"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="118"/>
       <c r="F82" s="29" t="s">
         <v>163</v>
       </c>
@@ -23802,9 +24008,9 @@
       <c r="B83" s="35">
         <v>83</v>
       </c>
-      <c r="C83" s="65"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="76"/>
+      <c r="C83" s="99"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="118"/>
       <c r="F83" s="19" t="s">
         <v>70</v>
       </c>
@@ -23821,9 +24027,9 @@
       <c r="B84" s="35">
         <v>84</v>
       </c>
-      <c r="C84" s="65"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="76"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="118"/>
       <c r="F84" s="60" t="s">
         <v>160</v>
       </c>
@@ -23840,9 +24046,9 @@
       <c r="B85" s="35">
         <v>85</v>
       </c>
-      <c r="C85" s="65"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="70" t="s">
+      <c r="C85" s="99"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="113" t="s">
         <v>145</v>
       </c>
       <c r="F85" s="19" t="s">
@@ -23861,9 +24067,9 @@
       <c r="B86" s="35">
         <v>86</v>
       </c>
-      <c r="C86" s="65"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="71"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="65"/>
       <c r="F86" s="19" t="s">
         <v>89</v>
       </c>
@@ -23880,9 +24086,9 @@
       <c r="B87" s="35">
         <v>87</v>
       </c>
-      <c r="C87" s="65"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="74" t="s">
+      <c r="C87" s="99"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="116" t="s">
         <v>136</v>
       </c>
       <c r="F87" s="15" t="s">
@@ -23901,9 +24107,9 @@
       <c r="B88" s="35">
         <v>88</v>
       </c>
-      <c r="C88" s="65"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="71"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="65"/>
       <c r="F88" s="21" t="s">
         <v>90</v>
       </c>
@@ -23920,9 +24126,9 @@
       <c r="B89" s="35">
         <v>89</v>
       </c>
-      <c r="C89" s="65"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="74" t="s">
+      <c r="C89" s="99"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="116" t="s">
         <v>137</v>
       </c>
       <c r="F89" s="58" t="s">
@@ -23941,9 +24147,9 @@
       <c r="B90" s="35">
         <v>90</v>
       </c>
-      <c r="C90" s="65"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="75"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="117"/>
       <c r="F90" s="57" t="s">
         <v>68</v>
       </c>
@@ -23960,9 +24166,9 @@
       <c r="B91" s="35">
         <v>91</v>
       </c>
-      <c r="C91" s="65"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="71"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="65"/>
       <c r="F91" s="19" t="s">
         <v>91</v>
       </c>
@@ -23979,9 +24185,9 @@
       <c r="B92" s="35">
         <v>92</v>
       </c>
-      <c r="C92" s="65"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="74" t="s">
+      <c r="C92" s="99"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="116" t="s">
         <v>138</v>
       </c>
       <c r="F92" s="29" t="s">
@@ -24000,9 +24206,9 @@
       <c r="B93" s="35">
         <v>93</v>
       </c>
-      <c r="C93" s="65"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="75"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="117"/>
       <c r="F93" s="59" t="s">
         <v>157</v>
       </c>
@@ -24019,9 +24225,9 @@
       <c r="B94" s="35">
         <v>94</v>
       </c>
-      <c r="C94" s="65"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="75"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="101"/>
+      <c r="E94" s="117"/>
       <c r="F94" s="19" t="s">
         <v>92</v>
       </c>
@@ -24038,9 +24244,9 @@
       <c r="B95" s="35">
         <v>95</v>
       </c>
-      <c r="C95" s="66"/>
-      <c r="D95" s="91"/>
-      <c r="E95" s="71"/>
+      <c r="C95" s="111"/>
+      <c r="D95" s="102"/>
+      <c r="E95" s="65"/>
       <c r="F95" s="19" t="s">
         <v>69</v>
       </c>
@@ -24057,9 +24263,13 @@
       <c r="B96" s="35">
         <v>97</v>
       </c>
-      <c r="C96" s="85"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="123" t="s">
+      <c r="C96" s="123" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" s="121" t="s">
+        <v>170</v>
+      </c>
+      <c r="E96" s="71" t="s">
         <v>164</v>
       </c>
       <c r="F96" s="10" t="s">
@@ -24078,9 +24288,9 @@
       <c r="B97" s="35">
         <v>98</v>
       </c>
-      <c r="C97" s="85"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="124"/>
+      <c r="C97" s="123"/>
+      <c r="D97" s="121"/>
+      <c r="E97" s="72"/>
       <c r="F97" s="10" t="s">
         <v>48</v>
       </c>
@@ -24097,8 +24307,8 @@
       <c r="B98" s="35">
         <v>99</v>
       </c>
-      <c r="C98" s="85"/>
-      <c r="D98" s="84"/>
+      <c r="C98" s="123"/>
+      <c r="D98" s="122"/>
       <c r="E98" s="50" t="s">
         <v>139</v>
       </c>
@@ -24118,11 +24328,11 @@
       <c r="B99" s="35">
         <v>100</v>
       </c>
-      <c r="C99" s="85"/>
-      <c r="D99" s="114" t="s">
+      <c r="C99" s="123"/>
+      <c r="D99" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="E99" s="82" t="s">
+      <c r="E99" s="120" t="s">
         <v>93</v>
       </c>
       <c r="F99" s="29" t="s">
@@ -24141,9 +24351,9 @@
       <c r="B100" s="35">
         <v>101</v>
       </c>
-      <c r="C100" s="85"/>
-      <c r="D100" s="115"/>
-      <c r="E100" s="71"/>
+      <c r="C100" s="123"/>
+      <c r="D100" s="86"/>
+      <c r="E100" s="65"/>
       <c r="F100" s="29" t="s">
         <v>97</v>
       </c>
@@ -24160,9 +24370,9 @@
       <c r="B101" s="35">
         <v>102</v>
       </c>
-      <c r="C101" s="85"/>
-      <c r="D101" s="115"/>
-      <c r="E101" s="81" t="s">
+      <c r="C101" s="123"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="119" t="s">
         <v>94</v>
       </c>
       <c r="F101" s="29" t="s">
@@ -24181,9 +24391,9 @@
       <c r="B102" s="35">
         <v>103</v>
       </c>
-      <c r="C102" s="85"/>
-      <c r="D102" s="115"/>
-      <c r="E102" s="75"/>
+      <c r="C102" s="123"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="117"/>
       <c r="F102" s="29" t="s">
         <v>100</v>
       </c>
@@ -24200,9 +24410,9 @@
       <c r="B103" s="35">
         <v>104</v>
       </c>
-      <c r="C103" s="85"/>
-      <c r="D103" s="115"/>
-      <c r="E103" s="71"/>
+      <c r="C103" s="123"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="65"/>
       <c r="F103" s="29" t="s">
         <v>99</v>
       </c>
@@ -24219,9 +24429,9 @@
       <c r="B104" s="35">
         <v>105</v>
       </c>
-      <c r="C104" s="85"/>
-      <c r="D104" s="115"/>
-      <c r="E104" s="67" t="s">
+      <c r="C104" s="123"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="112" t="s">
         <v>106</v>
       </c>
       <c r="F104" s="43" t="s">
@@ -24240,9 +24450,9 @@
       <c r="B105" s="35">
         <v>106</v>
       </c>
-      <c r="C105" s="85"/>
-      <c r="D105" s="115"/>
-      <c r="E105" s="68"/>
+      <c r="C105" s="123"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="90"/>
       <c r="F105" s="43" t="s">
         <v>102</v>
       </c>
@@ -24259,9 +24469,9 @@
       <c r="B106" s="35">
         <v>107</v>
       </c>
-      <c r="C106" s="85"/>
-      <c r="D106" s="115"/>
-      <c r="E106" s="68"/>
+      <c r="C106" s="123"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="90"/>
       <c r="F106" s="43" t="s">
         <v>104</v>
       </c>
@@ -24278,9 +24488,9 @@
       <c r="B107" s="35">
         <v>108</v>
       </c>
-      <c r="C107" s="85"/>
-      <c r="D107" s="115"/>
-      <c r="E107" s="68"/>
+      <c r="C107" s="123"/>
+      <c r="D107" s="86"/>
+      <c r="E107" s="90"/>
       <c r="F107" s="43" t="s">
         <v>103</v>
       </c>
@@ -24297,9 +24507,9 @@
       <c r="B108" s="35">
         <v>109</v>
       </c>
-      <c r="C108" s="86"/>
-      <c r="D108" s="116"/>
-      <c r="E108" s="69"/>
+      <c r="C108" s="124"/>
+      <c r="D108" s="87"/>
+      <c r="E108" s="92"/>
       <c r="F108" s="44" t="s">
         <v>105</v>
       </c>
@@ -24316,10 +24526,10 @@
       <c r="B109" s="35">
         <v>110</v>
       </c>
-      <c r="C109" s="120" t="s">
+      <c r="C109" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D109" s="111" t="s">
+      <c r="D109" s="78" t="s">
         <v>151</v>
       </c>
       <c r="E109" s="49" t="s">
@@ -24341,9 +24551,9 @@
       <c r="B110" s="35">
         <v>111</v>
       </c>
-      <c r="C110" s="121"/>
-      <c r="D110" s="112"/>
-      <c r="E110" s="113" t="s">
+      <c r="C110" s="69"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="80" t="s">
         <v>141</v>
       </c>
       <c r="F110" s="51" t="s">
@@ -24362,9 +24572,9 @@
       <c r="B111" s="35">
         <v>112</v>
       </c>
-      <c r="C111" s="121"/>
-      <c r="D111" s="112"/>
-      <c r="E111" s="71"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="65"/>
       <c r="F111" s="29" t="s">
         <v>144</v>
       </c>
@@ -24381,11 +24591,11 @@
       <c r="B112" s="35">
         <v>113</v>
       </c>
-      <c r="C112" s="121"/>
-      <c r="D112" s="118" t="s">
+      <c r="C112" s="69"/>
+      <c r="D112" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="E112" s="117" t="s">
+      <c r="E112" s="64" t="s">
         <v>143</v>
       </c>
       <c r="F112" s="20" t="s">
@@ -24404,9 +24614,9 @@
       <c r="B113" s="35">
         <v>114</v>
       </c>
-      <c r="C113" s="122"/>
-      <c r="D113" s="119"/>
-      <c r="E113" s="71"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="65"/>
       <c r="F113" s="53" t="s">
         <v>142</v>
       </c>
@@ -31484,25 +31694,22 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="D20:D29"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D99:D108"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="C3:C29"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="C53:C95"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="C96:C108"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="D5:D19"/>
     <mergeCell ref="D77:D95"/>
@@ -31519,22 +31726,25 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="D59:D76"/>
-    <mergeCell ref="C3:C29"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="C53:C95"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="C96:C108"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="D20:D29"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D99:D108"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E69:E76"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
